--- a/model parameters.xlsx
+++ b/model parameters.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/92a996cea29e9e70/future/复旦/信息学院/课题组/narcolepsy_night/narcolepsy_night_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="397" documentId="8_{CC0F832E-09B9-4483-8906-EB65D37E844B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19DE9C5E-9658-49CB-8A12-66A85E527E86}"/>
+  <xr:revisionPtr revIDLastSave="401" documentId="8_{CC0F832E-09B9-4483-8906-EB65D37E844B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{010A70FD-2731-4630-8465-61EE6F292610}"/>
   <bookViews>
-    <workbookView xWindow="8532" yWindow="4980" windowWidth="14400" windowHeight="4308" tabRatio="684" xr2:uid="{926C264C-4A46-4ECD-9D6F-5F8442F59816}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" tabRatio="684" activeTab="1" xr2:uid="{926C264C-4A46-4ECD-9D6F-5F8442F59816}"/>
   </bookViews>
   <sheets>
-    <sheet name="squaresmall_2.5min" sheetId="8" r:id="rId1"/>
-    <sheet name="squaresmall_5min" sheetId="3" r:id="rId2"/>
-    <sheet name="squaresmall_10min" sheetId="4" r:id="rId3"/>
-    <sheet name="squaresmall_15min" sheetId="1" r:id="rId4"/>
-    <sheet name="squaresmall_30min" sheetId="5" r:id="rId5"/>
-    <sheet name="squaresmall_60min" sheetId="6" r:id="rId6"/>
-    <sheet name="squaresmall_90min" sheetId="10" r:id="rId7"/>
+    <sheet name="squaresmall_0.5min" sheetId="12" r:id="rId1"/>
+    <sheet name="squaresmall_1min" sheetId="11" r:id="rId2"/>
+    <sheet name="squaresmall_2.5min" sheetId="8" r:id="rId3"/>
+    <sheet name="squaresmall_5min" sheetId="3" r:id="rId4"/>
+    <sheet name="squaresmall_10min" sheetId="4" r:id="rId5"/>
+    <sheet name="squaresmall_15min" sheetId="1" r:id="rId6"/>
+    <sheet name="squaresmall_30min" sheetId="5" r:id="rId7"/>
+    <sheet name="squaresmall_60min" sheetId="6" r:id="rId8"/>
+    <sheet name="squaresmall_90min" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,6 +46,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={4AECBC2F-051C-4820-906D-9799E0D0F62C}</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{4AECBC2F-051C-4820-906D-9799E0D0F62C}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    Conv + bn + relu</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={78FBF765-FFF2-4E5A-8F7B-7D4AF4C4FA67}</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{78FBF765-FFF2-4E5A-8F7B-7D4AF4C4FA67}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    Conv + bn + relu</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={B100343F-CB46-42EB-90C6-4D78CAF68DD7}</author>
   </authors>
   <commentList>
@@ -59,7 +97,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={BFAEE7B6-8605-4D93-9636-84FC77EE3F37}</author>
@@ -77,7 +115,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={D0E19E3A-BEF6-4D8F-8B85-99EBB0AFAE77}</author>
@@ -95,7 +133,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={ED54074E-1461-42CA-93B5-B3CDA7335CD4}</author>
@@ -113,7 +151,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={490D6E01-9C33-4844-9DBF-53D1E0FF223E}</author>
@@ -131,7 +169,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={1E1FFC72-8CF8-4D29-B355-CFC68D31835B}</author>
@@ -149,7 +187,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={64D2FD01-4C45-451A-9CEF-F058A69EB0A3}</author>
@@ -168,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="97">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -967,7 +1005,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D2" dT="2022-12-09T06:43:58.77" personId="{864C6BF0-5F55-4DA1-B7D4-4F9E1CBE244D}" id="{B100343F-CB46-42EB-90C6-4D78CAF68DD7}">
+  <threadedComment ref="D2" dT="2022-12-09T06:43:58.77" personId="{864C6BF0-5F55-4DA1-B7D4-4F9E1CBE244D}" id="{4AECBC2F-051C-4820-906D-9799E0D0F62C}">
     <text>Conv + bn + relu</text>
   </threadedComment>
 </ThreadedComments>
@@ -975,7 +1013,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D2" dT="2022-12-09T06:43:58.77" personId="{864C6BF0-5F55-4DA1-B7D4-4F9E1CBE244D}" id="{BFAEE7B6-8605-4D93-9636-84FC77EE3F37}">
+  <threadedComment ref="D2" dT="2022-12-09T06:43:58.77" personId="{864C6BF0-5F55-4DA1-B7D4-4F9E1CBE244D}" id="{78FBF765-FFF2-4E5A-8F7B-7D4AF4C4FA67}">
     <text>Conv + bn + relu</text>
   </threadedComment>
 </ThreadedComments>
@@ -983,7 +1021,7 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D2" dT="2022-12-09T06:43:58.77" personId="{864C6BF0-5F55-4DA1-B7D4-4F9E1CBE244D}" id="{D0E19E3A-BEF6-4D8F-8B85-99EBB0AFAE77}">
+  <threadedComment ref="D2" dT="2022-12-09T06:43:58.77" personId="{864C6BF0-5F55-4DA1-B7D4-4F9E1CBE244D}" id="{B100343F-CB46-42EB-90C6-4D78CAF68DD7}">
     <text>Conv + bn + relu</text>
   </threadedComment>
 </ThreadedComments>
@@ -991,7 +1029,7 @@
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D2" dT="2022-12-09T06:43:58.77" personId="{864C6BF0-5F55-4DA1-B7D4-4F9E1CBE244D}" id="{ED54074E-1461-42CA-93B5-B3CDA7335CD4}">
+  <threadedComment ref="D2" dT="2022-12-09T06:43:58.77" personId="{864C6BF0-5F55-4DA1-B7D4-4F9E1CBE244D}" id="{BFAEE7B6-8605-4D93-9636-84FC77EE3F37}">
     <text>Conv + bn + relu</text>
   </threadedComment>
 </ThreadedComments>
@@ -999,7 +1037,7 @@
 
 <file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D2" dT="2022-12-09T06:43:58.77" personId="{864C6BF0-5F55-4DA1-B7D4-4F9E1CBE244D}" id="{490D6E01-9C33-4844-9DBF-53D1E0FF223E}">
+  <threadedComment ref="D2" dT="2022-12-09T06:43:58.77" personId="{864C6BF0-5F55-4DA1-B7D4-4F9E1CBE244D}" id="{D0E19E3A-BEF6-4D8F-8B85-99EBB0AFAE77}">
     <text>Conv + bn + relu</text>
   </threadedComment>
 </ThreadedComments>
@@ -1007,13 +1045,29 @@
 
 <file path=xl/threadedComments/threadedComment6.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D2" dT="2022-12-09T06:43:58.77" personId="{864C6BF0-5F55-4DA1-B7D4-4F9E1CBE244D}" id="{ED54074E-1461-42CA-93B5-B3CDA7335CD4}">
+    <text>Conv + bn + relu</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment7.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D2" dT="2022-12-09T06:43:58.77" personId="{864C6BF0-5F55-4DA1-B7D4-4F9E1CBE244D}" id="{490D6E01-9C33-4844-9DBF-53D1E0FF223E}">
+    <text>Conv + bn + relu</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment8.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="D2" dT="2022-12-09T06:43:58.77" personId="{864C6BF0-5F55-4DA1-B7D4-4F9E1CBE244D}" id="{1E1FFC72-8CF8-4D29-B355-CFC68D31835B}">
     <text>Conv + bn + relu</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment9.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="D2" dT="2022-12-09T06:43:58.77" personId="{864C6BF0-5F55-4DA1-B7D4-4F9E1CBE244D}" id="{64D2FD01-4C45-451A-9CEF-F058A69EB0A3}">
     <text>Conv + bn + relu</text>
@@ -1022,7 +1076,337 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA6C59A-1D16-4967-A555-83289B355026}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AE854DF-B4F5-4614-80AD-AEC9F4F1DEFF}">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="2" max="9" width="10.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2">
+        <v>64</v>
+      </c>
+      <c r="I2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3">
+        <v>128</v>
+      </c>
+      <c r="I3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4">
+        <v>128</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="1">
+        <v>128</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="1">
+        <v>128</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="1">
+        <v>128</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9">
+        <v>256</v>
+      </c>
+      <c r="I9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10">
+        <v>256</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10">
+        <v>256</v>
+      </c>
+      <c r="I10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11">
+        <v>256</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11">
+        <v>256</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>256</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="3">
+        <v>1024</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="3">
+        <v>256</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831123E8-51A2-4E3D-B068-90C4F0ACB559}">
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1351,7 +1735,337 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA6C59A-1D16-4967-A555-83289B355026}">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" customWidth="1"/>
+    <col min="2" max="9" width="10.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2">
+        <v>64</v>
+      </c>
+      <c r="I2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3">
+        <v>128</v>
+      </c>
+      <c r="I3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4">
+        <v>128</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="1">
+        <v>128</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="1">
+        <v>128</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="1">
+        <v>128</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9">
+        <v>256</v>
+      </c>
+      <c r="I9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10">
+        <v>256</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10">
+        <v>256</v>
+      </c>
+      <c r="I10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11">
+        <v>256</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11">
+        <v>256</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>256</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="3">
+        <v>1024</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="3">
+        <v>256</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415BE572-6AA5-4A7D-A822-DB6FA721D905}">
   <dimension ref="A1:I29"/>
   <sheetViews>
@@ -1733,7 +2447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08D8069-3042-4BD2-8CAA-05BAB3397A99}">
   <dimension ref="A1:I30"/>
   <sheetViews>
@@ -2141,7 +2855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB23BA13-B060-4103-A553-69EAD79AB6D2}">
   <sheetPr>
     <tabColor theme="4"/>
@@ -2521,7 +3235,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AAA799B-2BA5-4B2C-AC3B-F8CF01FB69CC}">
   <dimension ref="A1:I30"/>
   <sheetViews>
@@ -2929,7 +3643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48448DB3-30FB-43C5-BB49-F3CB7322B86D}">
   <dimension ref="A1:I29"/>
   <sheetViews>
@@ -3311,7 +4025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF3E004E-98B0-4FB7-9F09-9AD61CF91F08}">
   <dimension ref="A1:I30"/>
   <sheetViews>
